--- a/excelfiles/deceased_cases.xlsx
+++ b/excelfiles/deceased_cases.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -596,6 +596,11 @@
           <t>03-10-2020</t>
         </is>
       </c>
+      <c r="S1" s="4" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -654,6 +659,9 @@
       <c r="R2" t="n">
         <v>53</v>
       </c>
+      <c r="S2" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -712,6 +720,9 @@
       <c r="R3" t="n">
         <v>5900</v>
       </c>
+      <c r="S3" t="n">
+        <v>5941</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -770,6 +781,9 @@
       <c r="R4" t="n">
         <v>18</v>
       </c>
+      <c r="S4" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -828,6 +842,9 @@
       <c r="R5" t="n">
         <v>721</v>
       </c>
+      <c r="S5" t="n">
+        <v>735</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -886,6 +903,9 @@
       <c r="R6" t="n">
         <v>910</v>
       </c>
+      <c r="S6" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -944,6 +964,9 @@
       <c r="R7" t="n">
         <v>169</v>
       </c>
+      <c r="S7" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1002,6 +1025,9 @@
       <c r="R8" t="n">
         <v>1002</v>
       </c>
+      <c r="S8" t="n">
+        <v>1031</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1060,6 +1086,9 @@
       <c r="R9" t="n">
         <v>2</v>
       </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1118,6 +1147,9 @@
       <c r="R10" t="n">
         <v>5438</v>
       </c>
+      <c r="S10" t="n">
+        <v>5472</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1176,6 +1208,9 @@
       <c r="R11" t="n">
         <v>442</v>
       </c>
+      <c r="S11" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1234,6 +1269,9 @@
       <c r="R12" t="n">
         <v>3475</v>
       </c>
+      <c r="S12" t="n">
+        <v>3487</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1292,6 +1330,9 @@
       <c r="R13" t="n">
         <v>1425</v>
       </c>
+      <c r="S13" t="n">
+        <v>1450</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1350,6 +1391,9 @@
       <c r="R14" t="n">
         <v>202</v>
       </c>
+      <c r="S14" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1408,6 +1452,9 @@
       <c r="R15" t="n">
         <v>1212</v>
       </c>
+      <c r="S15" t="n">
+        <v>1231</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1466,6 +1513,9 @@
       <c r="R16" t="n">
         <v>729</v>
       </c>
+      <c r="S16" t="n">
+        <v>734</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1524,6 +1574,9 @@
       <c r="R17" t="n">
         <v>9119</v>
       </c>
+      <c r="S17" t="n">
+        <v>9219</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1582,6 +1635,9 @@
       <c r="R18" t="n">
         <v>791</v>
       </c>
+      <c r="S18" t="n">
+        <v>813</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1640,6 +1696,9 @@
       <c r="R19" t="n">
         <v>61</v>
       </c>
+      <c r="S19" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1698,6 +1757,9 @@
       <c r="R20" t="n">
         <v>2372</v>
       </c>
+      <c r="S20" t="n">
+        <v>2399</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1756,6 +1818,9 @@
       <c r="R21" t="n">
         <v>37480</v>
       </c>
+      <c r="S21" t="n">
+        <v>37758</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1814,6 +1879,9 @@
       <c r="R22" t="n">
         <v>69</v>
       </c>
+      <c r="S22" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1872,6 +1940,9 @@
       <c r="R23" t="n">
         <v>52</v>
       </c>
+      <c r="S23" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1930,6 +2001,9 @@
       <c r="R24" t="n">
         <v>0</v>
       </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1988,6 +2062,9 @@
       <c r="R25" t="n">
         <v>17</v>
       </c>
+      <c r="S25" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2046,6 +2123,9 @@
       <c r="R26" t="n">
         <v>875</v>
       </c>
+      <c r="S26" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2104,6 +2184,9 @@
       <c r="R27" t="n">
         <v>532</v>
       </c>
+      <c r="S27" t="n">
+        <v>534</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2162,6 +2245,9 @@
       <c r="R28" t="n">
         <v>3501</v>
       </c>
+      <c r="S28" t="n">
+        <v>3562</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2220,6 +2306,9 @@
       <c r="R29" t="n">
         <v>1516</v>
       </c>
+      <c r="S29" t="n">
+        <v>1530</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2278,6 +2367,9 @@
       <c r="R30" t="n">
         <v>41</v>
       </c>
+      <c r="S30" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2336,6 +2428,9 @@
       <c r="R31" t="n">
         <v>9653</v>
       </c>
+      <c r="S31" t="n">
+        <v>9718</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2394,6 +2489,9 @@
       <c r="R32" t="n">
         <v>1153</v>
       </c>
+      <c r="S32" t="n">
+        <v>1163</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2452,6 +2550,9 @@
       <c r="R33" t="n">
         <v>289</v>
       </c>
+      <c r="S33" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2510,6 +2611,9 @@
       <c r="R34" t="n">
         <v>636</v>
       </c>
+      <c r="S34" t="n">
+        <v>648</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2568,6 +2672,9 @@
       <c r="R35" t="n">
         <v>5917</v>
       </c>
+      <c r="S35" t="n">
+        <v>5977</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2625,6 +2732,9 @@
       </c>
       <c r="R36" t="n">
         <v>5070</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5132</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/deceased_cases.xlsx
+++ b/excelfiles/deceased_cases.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -601,6 +601,11 @@
           <t>04-10-2020</t>
         </is>
       </c>
+      <c r="T1" s="4" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -662,6 +667,9 @@
       <c r="S2" t="n">
         <v>53</v>
       </c>
+      <c r="T2" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -723,6 +731,9 @@
       <c r="S3" t="n">
         <v>5941</v>
       </c>
+      <c r="T3" t="n">
+        <v>5981</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -784,6 +795,9 @@
       <c r="S4" t="n">
         <v>18</v>
       </c>
+      <c r="T4" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -845,6 +859,9 @@
       <c r="S5" t="n">
         <v>735</v>
       </c>
+      <c r="T5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -906,6 +923,9 @@
       <c r="S6" t="n">
         <v>912</v>
       </c>
+      <c r="T6" t="n">
+        <v>915</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -967,6 +987,9 @@
       <c r="S7" t="n">
         <v>172</v>
       </c>
+      <c r="T7" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1028,6 +1051,9 @@
       <c r="S8" t="n">
         <v>1031</v>
       </c>
+      <c r="T8" t="n">
+        <v>1045</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1089,6 +1115,9 @@
       <c r="S9" t="n">
         <v>2</v>
       </c>
+      <c r="T9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1150,6 +1179,9 @@
       <c r="S10" t="n">
         <v>5472</v>
       </c>
+      <c r="T10" t="n">
+        <v>5510</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1211,6 +1243,9 @@
       <c r="S11" t="n">
         <v>450</v>
       </c>
+      <c r="T11" t="n">
+        <v>456</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1272,6 +1307,9 @@
       <c r="S12" t="n">
         <v>3487</v>
       </c>
+      <c r="T12" t="n">
+        <v>3496</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1333,6 +1371,9 @@
       <c r="S13" t="n">
         <v>1450</v>
       </c>
+      <c r="T13" t="n">
+        <v>1470</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1394,6 +1435,9 @@
       <c r="S14" t="n">
         <v>210</v>
       </c>
+      <c r="T14" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1455,6 +1499,9 @@
       <c r="S15" t="n">
         <v>1231</v>
       </c>
+      <c r="T15" t="n">
+        <v>1242</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1516,6 +1563,9 @@
       <c r="S16" t="n">
         <v>734</v>
       </c>
+      <c r="T16" t="n">
+        <v>743</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1577,6 +1627,9 @@
       <c r="S17" t="n">
         <v>9219</v>
       </c>
+      <c r="T17" t="n">
+        <v>9286</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1638,6 +1691,9 @@
       <c r="S18" t="n">
         <v>813</v>
       </c>
+      <c r="T18" t="n">
+        <v>836</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1699,6 +1755,9 @@
       <c r="S19" t="n">
         <v>61</v>
       </c>
+      <c r="T19" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1760,6 +1819,9 @@
       <c r="S20" t="n">
         <v>2399</v>
       </c>
+      <c r="T20" t="n">
+        <v>2434</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1821,6 +1883,9 @@
       <c r="S21" t="n">
         <v>37758</v>
       </c>
+      <c r="T21" t="n">
+        <v>38084</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1882,6 +1947,9 @@
       <c r="S22" t="n">
         <v>71</v>
       </c>
+      <c r="T22" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1943,6 +2011,9 @@
       <c r="S23" t="n">
         <v>54</v>
       </c>
+      <c r="T23" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2004,6 +2075,9 @@
       <c r="S24" t="n">
         <v>0</v>
       </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2065,6 +2139,9 @@
       <c r="S25" t="n">
         <v>17</v>
       </c>
+      <c r="T25" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2126,6 +2203,9 @@
       <c r="S26" t="n">
         <v>892</v>
       </c>
+      <c r="T26" t="n">
+        <v>907</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2187,6 +2267,9 @@
       <c r="S27" t="n">
         <v>534</v>
       </c>
+      <c r="T27" t="n">
+        <v>539</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2248,6 +2331,9 @@
       <c r="S28" t="n">
         <v>3562</v>
       </c>
+      <c r="T28" t="n">
+        <v>3603</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2309,6 +2395,9 @@
       <c r="S29" t="n">
         <v>1530</v>
       </c>
+      <c r="T29" t="n">
+        <v>1545</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2370,6 +2459,9 @@
       <c r="S30" t="n">
         <v>43</v>
       </c>
+      <c r="T30" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2431,6 +2523,9 @@
       <c r="S31" t="n">
         <v>9718</v>
       </c>
+      <c r="T31" t="n">
+        <v>9784</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2492,6 +2587,9 @@
       <c r="S32" t="n">
         <v>1163</v>
       </c>
+      <c r="T32" t="n">
+        <v>1171</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2553,6 +2651,9 @@
       <c r="S33" t="n">
         <v>293</v>
       </c>
+      <c r="T33" t="n">
+        <v>299</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2614,6 +2715,9 @@
       <c r="S34" t="n">
         <v>648</v>
       </c>
+      <c r="T34" t="n">
+        <v>652</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2675,6 +2779,9 @@
       <c r="S35" t="n">
         <v>5977</v>
       </c>
+      <c r="T35" t="n">
+        <v>6029</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2735,6 +2842,9 @@
       </c>
       <c r="S36" t="n">
         <v>5132</v>
+      </c>
+      <c r="T36" t="n">
+        <v>5194</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/deceased_cases.xlsx
+++ b/excelfiles/deceased_cases.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -606,6 +606,11 @@
           <t>05-10-2020</t>
         </is>
       </c>
+      <c r="U1" s="4" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -670,6 +675,9 @@
       <c r="T2" t="n">
         <v>53</v>
       </c>
+      <c r="U2" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -734,6 +742,9 @@
       <c r="T3" t="n">
         <v>5981</v>
       </c>
+      <c r="U3" t="n">
+        <v>6019</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -798,6 +809,9 @@
       <c r="T4" t="n">
         <v>18</v>
       </c>
+      <c r="U4" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -862,6 +876,9 @@
       <c r="T5" t="n">
         <v>749</v>
       </c>
+      <c r="U5" t="n">
+        <v>760</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -926,6 +943,9 @@
       <c r="T6" t="n">
         <v>915</v>
       </c>
+      <c r="U6" t="n">
+        <v>924</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -990,6 +1010,9 @@
       <c r="T7" t="n">
         <v>174</v>
       </c>
+      <c r="U7" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1054,6 +1077,9 @@
       <c r="T8" t="n">
         <v>1045</v>
       </c>
+      <c r="U8" t="n">
+        <v>1081</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1118,6 +1144,9 @@
       <c r="T9" t="n">
         <v>2</v>
       </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1182,6 +1211,9 @@
       <c r="T10" t="n">
         <v>5510</v>
       </c>
+      <c r="U10" t="n">
+        <v>5542</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1246,6 +1278,9 @@
       <c r="T11" t="n">
         <v>456</v>
       </c>
+      <c r="U11" t="n">
+        <v>460</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1310,6 +1345,9 @@
       <c r="T12" t="n">
         <v>3496</v>
       </c>
+      <c r="U12" t="n">
+        <v>3509</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1374,6 +1412,9 @@
       <c r="T13" t="n">
         <v>1470</v>
       </c>
+      <c r="U13" t="n">
+        <v>1491</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1438,6 +1479,9 @@
       <c r="T14" t="n">
         <v>217</v>
       </c>
+      <c r="U14" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1502,6 +1546,9 @@
       <c r="T15" t="n">
         <v>1242</v>
       </c>
+      <c r="U15" t="n">
+        <v>1252</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1566,6 +1613,9 @@
       <c r="T16" t="n">
         <v>743</v>
       </c>
+      <c r="U16" t="n">
+        <v>747</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1630,6 +1680,9 @@
       <c r="T17" t="n">
         <v>9286</v>
       </c>
+      <c r="U17" t="n">
+        <v>9370</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1694,6 +1747,9 @@
       <c r="T18" t="n">
         <v>836</v>
       </c>
+      <c r="U18" t="n">
+        <v>859</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1758,6 +1814,9 @@
       <c r="T19" t="n">
         <v>61</v>
       </c>
+      <c r="U19" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1822,6 +1881,9 @@
       <c r="T20" t="n">
         <v>2434</v>
       </c>
+      <c r="U20" t="n">
+        <v>2463</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1886,6 +1948,9 @@
       <c r="T21" t="n">
         <v>38084</v>
       </c>
+      <c r="U21" t="n">
+        <v>38347</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1950,6 +2015,9 @@
       <c r="T22" t="n">
         <v>74</v>
       </c>
+      <c r="U22" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2014,6 +2082,9 @@
       <c r="T23" t="n">
         <v>54</v>
       </c>
+      <c r="U23" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2078,6 +2149,9 @@
       <c r="T24" t="n">
         <v>0</v>
       </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2142,6 +2216,9 @@
       <c r="T25" t="n">
         <v>17</v>
       </c>
+      <c r="U25" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2206,6 +2283,9 @@
       <c r="T26" t="n">
         <v>907</v>
       </c>
+      <c r="U26" t="n">
+        <v>924</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2270,6 +2350,9 @@
       <c r="T27" t="n">
         <v>539</v>
       </c>
+      <c r="U27" t="n">
+        <v>543</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2334,6 +2417,9 @@
       <c r="T28" t="n">
         <v>3603</v>
       </c>
+      <c r="U28" t="n">
+        <v>3641</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2398,6 +2484,9 @@
       <c r="T29" t="n">
         <v>1545</v>
       </c>
+      <c r="U29" t="n">
+        <v>1559</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2462,6 +2551,9 @@
       <c r="T30" t="n">
         <v>45</v>
       </c>
+      <c r="U30" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2526,6 +2618,9 @@
       <c r="T31" t="n">
         <v>9784</v>
       </c>
+      <c r="U31" t="n">
+        <v>9846</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2590,6 +2685,9 @@
       <c r="T32" t="n">
         <v>1171</v>
       </c>
+      <c r="U32" t="n">
+        <v>1181</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2654,6 +2752,9 @@
       <c r="T33" t="n">
         <v>299</v>
       </c>
+      <c r="U33" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2718,6 +2819,9 @@
       <c r="T34" t="n">
         <v>652</v>
       </c>
+      <c r="U34" t="n">
+        <v>669</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2782,6 +2886,9 @@
       <c r="T35" t="n">
         <v>6029</v>
       </c>
+      <c r="U35" t="n">
+        <v>6092</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2845,6 +2952,9 @@
       </c>
       <c r="T36" t="n">
         <v>5194</v>
+      </c>
+      <c r="U36" t="n">
+        <v>5255</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/deceased_cases.xlsx
+++ b/excelfiles/deceased_cases.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -611,6 +611,11 @@
           <t>06-10-2020</t>
         </is>
       </c>
+      <c r="V1" s="4" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -678,6 +683,9 @@
       <c r="U2" t="n">
         <v>54</v>
       </c>
+      <c r="V2" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -745,6 +753,9 @@
       <c r="U3" t="n">
         <v>6019</v>
       </c>
+      <c r="V3" t="n">
+        <v>6052</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -812,6 +823,9 @@
       <c r="U4" t="n">
         <v>19</v>
       </c>
+      <c r="V4" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -879,6 +893,9 @@
       <c r="U5" t="n">
         <v>760</v>
       </c>
+      <c r="V5" t="n">
+        <v>778</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -946,6 +963,9 @@
       <c r="U6" t="n">
         <v>924</v>
       </c>
+      <c r="V6" t="n">
+        <v>925</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1013,6 +1033,9 @@
       <c r="U7" t="n">
         <v>177</v>
       </c>
+      <c r="V7" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1080,6 +1103,9 @@
       <c r="U8" t="n">
         <v>1081</v>
       </c>
+      <c r="V8" t="n">
+        <v>1104</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1147,6 +1173,9 @@
       <c r="U9" t="n">
         <v>2</v>
       </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1214,6 +1243,9 @@
       <c r="U10" t="n">
         <v>5542</v>
       </c>
+      <c r="V10" t="n">
+        <v>5581</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1281,6 +1313,9 @@
       <c r="U11" t="n">
         <v>460</v>
       </c>
+      <c r="V11" t="n">
+        <v>468</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1348,6 +1383,9 @@
       <c r="U12" t="n">
         <v>3509</v>
       </c>
+      <c r="V12" t="n">
+        <v>3519</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1415,6 +1453,9 @@
       <c r="U13" t="n">
         <v>1491</v>
       </c>
+      <c r="V13" t="n">
+        <v>1509</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1482,6 +1523,9 @@
       <c r="U14" t="n">
         <v>224</v>
       </c>
+      <c r="V14" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1549,6 +1593,9 @@
       <c r="U15" t="n">
         <v>1252</v>
       </c>
+      <c r="V15" t="n">
+        <v>1268</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1616,6 +1663,9 @@
       <c r="U16" t="n">
         <v>747</v>
       </c>
+      <c r="V16" t="n">
+        <v>757</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1683,6 +1733,9 @@
       <c r="U17" t="n">
         <v>9370</v>
       </c>
+      <c r="V17" t="n">
+        <v>9461</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1750,6 +1803,9 @@
       <c r="U18" t="n">
         <v>859</v>
       </c>
+      <c r="V18" t="n">
+        <v>884</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1817,6 +1873,9 @@
       <c r="U19" t="n">
         <v>61</v>
       </c>
+      <c r="V19" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1884,6 +1943,9 @@
       <c r="U20" t="n">
         <v>2463</v>
       </c>
+      <c r="V20" t="n">
+        <v>2488</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1951,6 +2013,9 @@
       <c r="U21" t="n">
         <v>38347</v>
       </c>
+      <c r="V21" t="n">
+        <v>38717</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2018,6 +2083,9 @@
       <c r="U22" t="n">
         <v>75</v>
       </c>
+      <c r="V22" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2085,6 +2153,9 @@
       <c r="U23" t="n">
         <v>59</v>
       </c>
+      <c r="V23" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2152,6 +2223,9 @@
       <c r="U24" t="n">
         <v>0</v>
       </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2219,6 +2293,9 @@
       <c r="U25" t="n">
         <v>17</v>
       </c>
+      <c r="V25" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2286,6 +2363,9 @@
       <c r="U26" t="n">
         <v>924</v>
       </c>
+      <c r="V26" t="n">
+        <v>940</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2353,6 +2433,9 @@
       <c r="U27" t="n">
         <v>543</v>
       </c>
+      <c r="V27" t="n">
+        <v>546</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2420,6 +2503,9 @@
       <c r="U28" t="n">
         <v>3641</v>
       </c>
+      <c r="V28" t="n">
+        <v>3679</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2487,6 +2573,9 @@
       <c r="U29" t="n">
         <v>1559</v>
       </c>
+      <c r="V29" t="n">
+        <v>1574</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2554,6 +2643,9 @@
       <c r="U30" t="n">
         <v>46</v>
       </c>
+      <c r="V30" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2621,6 +2713,9 @@
       <c r="U31" t="n">
         <v>9846</v>
       </c>
+      <c r="V31" t="n">
+        <v>9917</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2688,6 +2783,9 @@
       <c r="U32" t="n">
         <v>1181</v>
       </c>
+      <c r="V32" t="n">
+        <v>1189</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2755,6 +2853,9 @@
       <c r="U33" t="n">
         <v>301</v>
       </c>
+      <c r="V33" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2822,6 +2923,9 @@
       <c r="U34" t="n">
         <v>669</v>
       </c>
+      <c r="V34" t="n">
+        <v>677</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2889,6 +2993,9 @@
       <c r="U35" t="n">
         <v>6092</v>
       </c>
+      <c r="V35" t="n">
+        <v>6153</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2955,6 +3062,9 @@
       </c>
       <c r="U36" t="n">
         <v>5255</v>
+      </c>
+      <c r="V36" t="n">
+        <v>5318</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/deceased_cases.xlsx
+++ b/excelfiles/deceased_cases.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -616,6 +616,11 @@
           <t>07-10-2020</t>
         </is>
       </c>
+      <c r="W1" s="4" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -686,6 +691,9 @@
       <c r="V2" t="n">
         <v>54</v>
       </c>
+      <c r="W2" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -756,6 +764,9 @@
       <c r="V3" t="n">
         <v>6052</v>
       </c>
+      <c r="W3" t="n">
+        <v>6086</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -826,6 +837,9 @@
       <c r="V4" t="n">
         <v>20</v>
       </c>
+      <c r="W4" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -896,6 +910,9 @@
       <c r="V5" t="n">
         <v>778</v>
       </c>
+      <c r="W5" t="n">
+        <v>785</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -966,6 +983,9 @@
       <c r="V6" t="n">
         <v>925</v>
       </c>
+      <c r="W6" t="n">
+        <v>927</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1036,6 +1056,9 @@
       <c r="V7" t="n">
         <v>180</v>
       </c>
+      <c r="W7" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1106,6 +1129,9 @@
       <c r="V8" t="n">
         <v>1104</v>
       </c>
+      <c r="W8" t="n">
+        <v>1134</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1176,6 +1202,9 @@
       <c r="V9" t="n">
         <v>2</v>
       </c>
+      <c r="W9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1246,6 +1275,9 @@
       <c r="V10" t="n">
         <v>5581</v>
       </c>
+      <c r="W10" t="n">
+        <v>5616</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1316,6 +1348,9 @@
       <c r="V11" t="n">
         <v>468</v>
       </c>
+      <c r="W11" t="n">
+        <v>477</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1386,6 +1421,9 @@
       <c r="V12" t="n">
         <v>3519</v>
       </c>
+      <c r="W12" t="n">
+        <v>3531</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1456,6 +1494,9 @@
       <c r="V13" t="n">
         <v>1509</v>
       </c>
+      <c r="W13" t="n">
+        <v>1528</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1526,6 +1567,9 @@
       <c r="V14" t="n">
         <v>229</v>
       </c>
+      <c r="W14" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1596,6 +1640,9 @@
       <c r="V15" t="n">
         <v>1268</v>
       </c>
+      <c r="W15" t="n">
+        <v>1282</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1666,6 +1713,9 @@
       <c r="V16" t="n">
         <v>757</v>
       </c>
+      <c r="W16" t="n">
+        <v>767</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1736,6 +1786,9 @@
       <c r="V17" t="n">
         <v>9461</v>
       </c>
+      <c r="W17" t="n">
+        <v>9574</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1806,6 +1859,9 @@
       <c r="V18" t="n">
         <v>884</v>
       </c>
+      <c r="W18" t="n">
+        <v>906</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1876,6 +1932,9 @@
       <c r="V19" t="n">
         <v>61</v>
       </c>
+      <c r="W19" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1946,6 +2005,9 @@
       <c r="V20" t="n">
         <v>2488</v>
       </c>
+      <c r="W20" t="n">
+        <v>2518</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2016,6 +2078,9 @@
       <c r="V21" t="n">
         <v>38717</v>
       </c>
+      <c r="W21" t="n">
+        <v>39072</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2086,6 +2151,9 @@
       <c r="V22" t="n">
         <v>78</v>
       </c>
+      <c r="W22" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2156,6 +2224,9 @@
       <c r="V23" t="n">
         <v>60</v>
       </c>
+      <c r="W23" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2226,6 +2297,9 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2296,6 +2370,9 @@
       <c r="V25" t="n">
         <v>17</v>
       </c>
+      <c r="W25" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2366,6 +2443,9 @@
       <c r="V26" t="n">
         <v>940</v>
       </c>
+      <c r="W26" t="n">
+        <v>958</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2436,6 +2516,9 @@
       <c r="V27" t="n">
         <v>546</v>
       </c>
+      <c r="W27" t="n">
+        <v>551</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2506,6 +2589,9 @@
       <c r="V28" t="n">
         <v>3679</v>
       </c>
+      <c r="W28" t="n">
+        <v>3712</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2576,6 +2662,9 @@
       <c r="V29" t="n">
         <v>1574</v>
       </c>
+      <c r="W29" t="n">
+        <v>1590</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2646,6 +2735,9 @@
       <c r="V30" t="n">
         <v>49</v>
       </c>
+      <c r="W30" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2716,6 +2808,9 @@
       <c r="V31" t="n">
         <v>9917</v>
       </c>
+      <c r="W31" t="n">
+        <v>9984</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2786,6 +2881,9 @@
       <c r="V32" t="n">
         <v>1189</v>
       </c>
+      <c r="W32" t="n">
+        <v>1201</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2856,6 +2954,9 @@
       <c r="V33" t="n">
         <v>301</v>
       </c>
+      <c r="W33" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2926,6 +3027,9 @@
       <c r="V34" t="n">
         <v>677</v>
       </c>
+      <c r="W34" t="n">
+        <v>688</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2996,6 +3100,9 @@
       <c r="V35" t="n">
         <v>6153</v>
       </c>
+      <c r="W35" t="n">
+        <v>6200</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3065,6 +3172,9 @@
       </c>
       <c r="V36" t="n">
         <v>5318</v>
+      </c>
+      <c r="W36" t="n">
+        <v>5376</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/deceased_cases.xlsx
+++ b/excelfiles/deceased_cases.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -621,6 +621,11 @@
           <t>08-10-2020</t>
         </is>
       </c>
+      <c r="X1" s="4" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -694,6 +699,9 @@
       <c r="W2" t="n">
         <v>54</v>
       </c>
+      <c r="X2" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -767,6 +775,9 @@
       <c r="W3" t="n">
         <v>6086</v>
       </c>
+      <c r="X3" t="n">
+        <v>6128</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -840,6 +851,9 @@
       <c r="W4" t="n">
         <v>21</v>
       </c>
+      <c r="X4" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -913,6 +927,9 @@
       <c r="W5" t="n">
         <v>785</v>
       </c>
+      <c r="X5" t="n">
+        <v>794</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -986,6 +1003,9 @@
       <c r="W6" t="n">
         <v>927</v>
       </c>
+      <c r="X6" t="n">
+        <v>929</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1059,6 +1079,9 @@
       <c r="W7" t="n">
         <v>182</v>
       </c>
+      <c r="X7" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1132,6 +1155,9 @@
       <c r="W8" t="n">
         <v>1134</v>
       </c>
+      <c r="X8" t="n">
+        <v>1158</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1205,6 +1231,9 @@
       <c r="W9" t="n">
         <v>2</v>
       </c>
+      <c r="X9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1278,6 +1307,9 @@
       <c r="W10" t="n">
         <v>5616</v>
       </c>
+      <c r="X10" t="n">
+        <v>5653</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1351,6 +1383,9 @@
       <c r="W11" t="n">
         <v>477</v>
       </c>
+      <c r="X11" t="n">
+        <v>484</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1424,6 +1459,9 @@
       <c r="W12" t="n">
         <v>3531</v>
       </c>
+      <c r="X12" t="n">
+        <v>3538</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1497,6 +1535,9 @@
       <c r="W13" t="n">
         <v>1528</v>
       </c>
+      <c r="X13" t="n">
+        <v>1548</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1570,6 +1611,9 @@
       <c r="W14" t="n">
         <v>231</v>
       </c>
+      <c r="X14" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1643,6 +1687,9 @@
       <c r="W15" t="n">
         <v>1282</v>
       </c>
+      <c r="X15" t="n">
+        <v>1291</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1716,6 +1763,9 @@
       <c r="W16" t="n">
         <v>767</v>
       </c>
+      <c r="X16" t="n">
+        <v>775</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1789,6 +1839,9 @@
       <c r="W17" t="n">
         <v>9574</v>
       </c>
+      <c r="X17" t="n">
+        <v>9675</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1862,6 +1915,9 @@
       <c r="W18" t="n">
         <v>906</v>
       </c>
+      <c r="X18" t="n">
+        <v>930</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1935,6 +1991,9 @@
       <c r="W19" t="n">
         <v>63</v>
       </c>
+      <c r="X19" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2008,6 +2067,9 @@
       <c r="W20" t="n">
         <v>2518</v>
       </c>
+      <c r="X20" t="n">
+        <v>2547</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2081,6 +2143,9 @@
       <c r="W21" t="n">
         <v>39072</v>
       </c>
+      <c r="X21" t="n">
+        <v>39430</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2154,6 +2219,9 @@
       <c r="W22" t="n">
         <v>80</v>
       </c>
+      <c r="X22" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2227,6 +2295,9 @@
       <c r="W23" t="n">
         <v>60</v>
       </c>
+      <c r="X23" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2300,6 +2371,9 @@
       <c r="W24" t="n">
         <v>0</v>
       </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2373,6 +2447,9 @@
       <c r="W25" t="n">
         <v>17</v>
       </c>
+      <c r="X25" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2446,6 +2523,9 @@
       <c r="W26" t="n">
         <v>958</v>
       </c>
+      <c r="X26" t="n">
+        <v>974</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2519,6 +2599,9 @@
       <c r="W27" t="n">
         <v>551</v>
       </c>
+      <c r="X27" t="n">
+        <v>556</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2592,6 +2675,9 @@
       <c r="W28" t="n">
         <v>3712</v>
       </c>
+      <c r="X28" t="n">
+        <v>3741</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2665,6 +2751,9 @@
       <c r="W29" t="n">
         <v>1590</v>
       </c>
+      <c r="X29" t="n">
+        <v>1605</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2738,6 +2827,9 @@
       <c r="W30" t="n">
         <v>49</v>
       </c>
+      <c r="X30" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2811,6 +2903,9 @@
       <c r="W31" t="n">
         <v>9984</v>
       </c>
+      <c r="X31" t="n">
+        <v>10052</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2884,6 +2979,9 @@
       <c r="W32" t="n">
         <v>1201</v>
       </c>
+      <c r="X32" t="n">
+        <v>1208</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2957,6 +3055,9 @@
       <c r="W33" t="n">
         <v>304</v>
       </c>
+      <c r="X33" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3030,6 +3131,9 @@
       <c r="W34" t="n">
         <v>688</v>
       </c>
+      <c r="X34" t="n">
+        <v>702</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3103,6 +3207,9 @@
       <c r="W35" t="n">
         <v>6200</v>
       </c>
+      <c r="X35" t="n">
+        <v>6245</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3175,6 +3282,9 @@
       </c>
       <c r="W36" t="n">
         <v>5376</v>
+      </c>
+      <c r="X36" t="n">
+        <v>5439</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/deceased_cases.xlsx
+++ b/excelfiles/deceased_cases.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -626,6 +626,11 @@
           <t>09-10-2020</t>
         </is>
       </c>
+      <c r="Y1" s="4" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -702,6 +707,9 @@
       <c r="X2" t="n">
         <v>55</v>
       </c>
+      <c r="Y2" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -778,6 +786,9 @@
       <c r="X3" t="n">
         <v>6128</v>
       </c>
+      <c r="Y3" t="n">
+        <v>6159</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -854,6 +865,9 @@
       <c r="X4" t="n">
         <v>22</v>
       </c>
+      <c r="Y4" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -930,6 +944,9 @@
       <c r="X5" t="n">
         <v>794</v>
       </c>
+      <c r="Y5" t="n">
+        <v>802</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1006,6 +1023,9 @@
       <c r="X6" t="n">
         <v>929</v>
       </c>
+      <c r="Y6" t="n">
+        <v>934</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1082,6 +1102,9 @@
       <c r="X7" t="n">
         <v>186</v>
       </c>
+      <c r="Y7" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1158,6 +1181,9 @@
       <c r="X8" t="n">
         <v>1158</v>
       </c>
+      <c r="Y8" t="n">
+        <v>1196</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1234,6 +1260,9 @@
       <c r="X9" t="n">
         <v>2</v>
       </c>
+      <c r="Y9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1310,6 +1339,9 @@
       <c r="X10" t="n">
         <v>5653</v>
       </c>
+      <c r="Y10" t="n">
+        <v>5692</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1386,6 +1418,9 @@
       <c r="X11" t="n">
         <v>484</v>
       </c>
+      <c r="Y11" t="n">
+        <v>491</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1462,6 +1497,9 @@
       <c r="X12" t="n">
         <v>3538</v>
       </c>
+      <c r="Y12" t="n">
+        <v>3547</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1538,6 +1576,9 @@
       <c r="X13" t="n">
         <v>1548</v>
       </c>
+      <c r="Y13" t="n">
+        <v>1562</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1614,6 +1655,9 @@
       <c r="X14" t="n">
         <v>238</v>
       </c>
+      <c r="Y14" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1690,6 +1734,9 @@
       <c r="X15" t="n">
         <v>1291</v>
       </c>
+      <c r="Y15" t="n">
+        <v>1306</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1766,6 +1813,9 @@
       <c r="X16" t="n">
         <v>775</v>
       </c>
+      <c r="Y16" t="n">
+        <v>781</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1842,6 +1892,9 @@
       <c r="X17" t="n">
         <v>9675</v>
       </c>
+      <c r="Y17" t="n">
+        <v>9789</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1918,6 +1971,9 @@
       <c r="X18" t="n">
         <v>930</v>
       </c>
+      <c r="Y18" t="n">
+        <v>955</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1994,6 +2050,9 @@
       <c r="X19" t="n">
         <v>63</v>
       </c>
+      <c r="Y19" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2070,6 +2129,9 @@
       <c r="X20" t="n">
         <v>2547</v>
       </c>
+      <c r="Y20" t="n">
+        <v>2574</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2146,6 +2208,9 @@
       <c r="X21" t="n">
         <v>39430</v>
       </c>
+      <c r="Y21" t="n">
+        <v>39732</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2222,6 +2287,9 @@
       <c r="X22" t="n">
         <v>83</v>
       </c>
+      <c r="Y22" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2298,6 +2366,9 @@
       <c r="X23" t="n">
         <v>60</v>
       </c>
+      <c r="Y23" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2374,6 +2445,9 @@
       <c r="X24" t="n">
         <v>0</v>
       </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2450,6 +2524,9 @@
       <c r="X25" t="n">
         <v>17</v>
       </c>
+      <c r="Y25" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2526,6 +2603,9 @@
       <c r="X26" t="n">
         <v>974</v>
       </c>
+      <c r="Y26" t="n">
+        <v>991</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2602,6 +2682,9 @@
       <c r="X27" t="n">
         <v>556</v>
       </c>
+      <c r="Y27" t="n">
+        <v>558</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2678,6 +2761,9 @@
       <c r="X28" t="n">
         <v>3741</v>
       </c>
+      <c r="Y28" t="n">
+        <v>3773</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2754,6 +2840,9 @@
       <c r="X29" t="n">
         <v>1605</v>
       </c>
+      <c r="Y29" t="n">
+        <v>1621</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2830,6 +2919,9 @@
       <c r="X30" t="n">
         <v>51</v>
       </c>
+      <c r="Y30" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2906,6 +2998,9 @@
       <c r="X31" t="n">
         <v>10052</v>
       </c>
+      <c r="Y31" t="n">
+        <v>10120</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2982,6 +3077,9 @@
       <c r="X32" t="n">
         <v>1208</v>
       </c>
+      <c r="Y32" t="n">
+        <v>1217</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3058,6 +3156,9 @@
       <c r="X33" t="n">
         <v>311</v>
       </c>
+      <c r="Y33" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3134,6 +3235,9 @@
       <c r="X34" t="n">
         <v>702</v>
       </c>
+      <c r="Y34" t="n">
+        <v>716</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3210,6 +3314,9 @@
       <c r="X35" t="n">
         <v>6245</v>
       </c>
+      <c r="Y35" t="n">
+        <v>6293</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3285,6 +3392,9 @@
       </c>
       <c r="X36" t="n">
         <v>5439</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>5501</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/deceased_cases.xlsx
+++ b/excelfiles/deceased_cases.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -631,6 +631,11 @@
           <t>10-10-2020</t>
         </is>
       </c>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -710,6 +715,9 @@
       <c r="Y2" t="n">
         <v>55</v>
       </c>
+      <c r="Z2" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -789,6 +797,9 @@
       <c r="Y3" t="n">
         <v>6159</v>
       </c>
+      <c r="Z3" t="n">
+        <v>6194</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -868,6 +879,9 @@
       <c r="Y4" t="n">
         <v>23</v>
       </c>
+      <c r="Z4" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -947,6 +961,9 @@
       <c r="Y5" t="n">
         <v>802</v>
       </c>
+      <c r="Z5" t="n">
+        <v>811</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1026,6 +1043,9 @@
       <c r="Y6" t="n">
         <v>934</v>
       </c>
+      <c r="Z6" t="n">
+        <v>944</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1105,6 +1125,9 @@
       <c r="Y7" t="n">
         <v>188</v>
       </c>
+      <c r="Z7" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1184,6 +1207,9 @@
       <c r="Y8" t="n">
         <v>1196</v>
       </c>
+      <c r="Z8" t="n">
+        <v>1235</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1263,6 +1289,9 @@
       <c r="Y9" t="n">
         <v>2</v>
       </c>
+      <c r="Z9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1342,6 +1371,9 @@
       <c r="Y10" t="n">
         <v>5692</v>
       </c>
+      <c r="Z10" t="n">
+        <v>5740</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1421,6 +1453,9 @@
       <c r="Y11" t="n">
         <v>491</v>
       </c>
+      <c r="Z11" t="n">
+        <v>499</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1500,6 +1535,9 @@
       <c r="Y12" t="n">
         <v>3547</v>
       </c>
+      <c r="Z12" t="n">
+        <v>3557</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1579,6 +1617,9 @@
       <c r="Y13" t="n">
         <v>1562</v>
       </c>
+      <c r="Z13" t="n">
+        <v>1572</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1658,6 +1699,9 @@
       <c r="Y14" t="n">
         <v>245</v>
       </c>
+      <c r="Z14" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1737,6 +1781,9 @@
       <c r="Y15" t="n">
         <v>1306</v>
       </c>
+      <c r="Z15" t="n">
+        <v>1313</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1816,6 +1863,9 @@
       <c r="Y16" t="n">
         <v>781</v>
       </c>
+      <c r="Z16" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1895,6 +1945,9 @@
       <c r="Y17" t="n">
         <v>9789</v>
       </c>
+      <c r="Z17" t="n">
+        <v>9891</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1974,6 +2027,9 @@
       <c r="Y18" t="n">
         <v>955</v>
       </c>
+      <c r="Z18" t="n">
+        <v>978</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2053,6 +2109,9 @@
       <c r="Y19" t="n">
         <v>63</v>
       </c>
+      <c r="Z19" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2132,6 +2191,9 @@
       <c r="Y20" t="n">
         <v>2574</v>
       </c>
+      <c r="Z20" t="n">
+        <v>2599</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2211,6 +2273,9 @@
       <c r="Y21" t="n">
         <v>39732</v>
       </c>
+      <c r="Z21" t="n">
+        <v>40040</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2290,6 +2355,9 @@
       <c r="Y22" t="n">
         <v>86</v>
       </c>
+      <c r="Z22" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2369,6 +2437,9 @@
       <c r="Y23" t="n">
         <v>61</v>
       </c>
+      <c r="Z23" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2448,6 +2519,9 @@
       <c r="Y24" t="n">
         <v>0</v>
       </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2527,6 +2601,9 @@
       <c r="Y25" t="n">
         <v>17</v>
       </c>
+      <c r="Z25" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2606,6 +2683,9 @@
       <c r="Y26" t="n">
         <v>991</v>
       </c>
+      <c r="Z26" t="n">
+        <v>1006</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2685,6 +2765,9 @@
       <c r="Y27" t="n">
         <v>558</v>
       </c>
+      <c r="Z27" t="n">
+        <v>559</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2764,6 +2847,9 @@
       <c r="Y28" t="n">
         <v>3773</v>
       </c>
+      <c r="Z28" t="n">
+        <v>3798</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2843,6 +2929,9 @@
       <c r="Y29" t="n">
         <v>1621</v>
       </c>
+      <c r="Z29" t="n">
+        <v>1636</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2922,6 +3011,9 @@
       <c r="Y30" t="n">
         <v>53</v>
       </c>
+      <c r="Z30" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3001,6 +3093,9 @@
       <c r="Y31" t="n">
         <v>10120</v>
       </c>
+      <c r="Z31" t="n">
+        <v>10187</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3080,6 +3175,9 @@
       <c r="Y32" t="n">
         <v>1217</v>
       </c>
+      <c r="Z32" t="n">
+        <v>1222</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3159,6 +3257,9 @@
       <c r="Y33" t="n">
         <v>313</v>
       </c>
+      <c r="Z33" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3238,6 +3339,9 @@
       <c r="Y34" t="n">
         <v>716</v>
       </c>
+      <c r="Z34" t="n">
+        <v>734</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3317,6 +3421,9 @@
       <c r="Y35" t="n">
         <v>6293</v>
       </c>
+      <c r="Z35" t="n">
+        <v>6353</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3395,6 +3502,9 @@
       </c>
       <c r="Y36" t="n">
         <v>5501</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>5563</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/deceased_cases.xlsx
+++ b/excelfiles/deceased_cases.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -636,6 +636,11 @@
           <t>11-10-2020</t>
         </is>
       </c>
+      <c r="AA1" s="4" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -718,6 +723,9 @@
       <c r="Z2" t="n">
         <v>55</v>
       </c>
+      <c r="AA2" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -800,6 +808,9 @@
       <c r="Z3" t="n">
         <v>6194</v>
       </c>
+      <c r="AA3" t="n">
+        <v>6224</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -882,6 +893,9 @@
       <c r="Z4" t="n">
         <v>23</v>
       </c>
+      <c r="AA4" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -964,6 +978,9 @@
       <c r="Z5" t="n">
         <v>811</v>
       </c>
+      <c r="AA5" t="n">
+        <v>816</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1046,6 +1063,9 @@
       <c r="Z6" t="n">
         <v>944</v>
       </c>
+      <c r="AA6" t="n">
+        <v>946</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1128,6 +1148,9 @@
       <c r="Z7" t="n">
         <v>190</v>
       </c>
+      <c r="AA7" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1210,6 +1233,9 @@
       <c r="Z8" t="n">
         <v>1235</v>
       </c>
+      <c r="AA8" t="n">
+        <v>1253</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1292,6 +1318,9 @@
       <c r="Z9" t="n">
         <v>2</v>
       </c>
+      <c r="AA9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1374,6 +1403,9 @@
       <c r="Z10" t="n">
         <v>5740</v>
       </c>
+      <c r="AA10" t="n">
+        <v>5769</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1456,6 +1488,9 @@
       <c r="Z11" t="n">
         <v>499</v>
       </c>
+      <c r="AA11" t="n">
+        <v>507</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1538,6 +1573,9 @@
       <c r="Z12" t="n">
         <v>3557</v>
       </c>
+      <c r="AA12" t="n">
+        <v>3566</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1620,6 +1658,9 @@
       <c r="Z13" t="n">
         <v>1572</v>
       </c>
+      <c r="AA13" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1702,6 +1743,9 @@
       <c r="Z14" t="n">
         <v>248</v>
       </c>
+      <c r="AA14" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1784,6 +1828,9 @@
       <c r="Z15" t="n">
         <v>1313</v>
       </c>
+      <c r="AA15" t="n">
+        <v>1322</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1866,6 +1913,9 @@
       <c r="Z16" t="n">
         <v>784</v>
       </c>
+      <c r="AA16" t="n">
+        <v>787</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1948,6 +1998,9 @@
       <c r="Z17" t="n">
         <v>9891</v>
       </c>
+      <c r="AA17" t="n">
+        <v>9966</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2030,6 +2083,9 @@
       <c r="Z18" t="n">
         <v>978</v>
       </c>
+      <c r="AA18" t="n">
+        <v>1003</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2112,6 +2168,9 @@
       <c r="Z19" t="n">
         <v>64</v>
       </c>
+      <c r="AA19" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2194,6 +2253,9 @@
       <c r="Z20" t="n">
         <v>2599</v>
       </c>
+      <c r="AA20" t="n">
+        <v>2624</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2276,6 +2338,9 @@
       <c r="Z21" t="n">
         <v>40040</v>
       </c>
+      <c r="AA21" t="n">
+        <v>40349</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2358,6 +2423,9 @@
       <c r="Z22" t="n">
         <v>88</v>
       </c>
+      <c r="AA22" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2440,6 +2508,9 @@
       <c r="Z23" t="n">
         <v>62</v>
       </c>
+      <c r="AA23" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2522,6 +2593,9 @@
       <c r="Z24" t="n">
         <v>0</v>
       </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2604,6 +2678,9 @@
       <c r="Z25" t="n">
         <v>17</v>
       </c>
+      <c r="AA25" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2686,6 +2763,9 @@
       <c r="Z26" t="n">
         <v>1006</v>
       </c>
+      <c r="AA26" t="n">
+        <v>1022</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2768,6 +2848,9 @@
       <c r="Z27" t="n">
         <v>559</v>
       </c>
+      <c r="AA27" t="n">
+        <v>563</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2850,6 +2933,9 @@
       <c r="Z28" t="n">
         <v>3798</v>
       </c>
+      <c r="AA28" t="n">
+        <v>3833</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2932,6 +3018,9 @@
       <c r="Z29" t="n">
         <v>1636</v>
       </c>
+      <c r="AA29" t="n">
+        <v>1650</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3014,6 +3103,9 @@
       <c r="Z30" t="n">
         <v>55</v>
       </c>
+      <c r="AA30" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3096,6 +3188,9 @@
       <c r="Z31" t="n">
         <v>10187</v>
       </c>
+      <c r="AA31" t="n">
+        <v>10252</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3178,6 +3273,9 @@
       <c r="Z32" t="n">
         <v>1222</v>
       </c>
+      <c r="AA32" t="n">
+        <v>1228</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3260,6 +3358,9 @@
       <c r="Z33" t="n">
         <v>315</v>
       </c>
+      <c r="AA33" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3342,6 +3443,9 @@
       <c r="Z34" t="n">
         <v>734</v>
       </c>
+      <c r="AA34" t="n">
+        <v>747</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3424,6 +3528,9 @@
       <c r="Z35" t="n">
         <v>6353</v>
       </c>
+      <c r="AA35" t="n">
+        <v>6394</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3505,6 +3612,9 @@
       </c>
       <c r="Z36" t="n">
         <v>5563</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>5622</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/deceased_cases.xlsx
+++ b/excelfiles/deceased_cases.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -641,6 +641,11 @@
           <t>12-10-2020</t>
         </is>
       </c>
+      <c r="AB1" s="4" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -726,6 +731,9 @@
       <c r="AA2" t="n">
         <v>55</v>
       </c>
+      <c r="AB2" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -811,6 +819,9 @@
       <c r="AA3" t="n">
         <v>6224</v>
       </c>
+      <c r="AB3" t="n">
+        <v>6256</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -896,6 +907,9 @@
       <c r="AA4" t="n">
         <v>24</v>
       </c>
+      <c r="AB4" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -981,6 +995,9 @@
       <c r="AA5" t="n">
         <v>816</v>
       </c>
+      <c r="AB5" t="n">
+        <v>826</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1066,6 +1083,9 @@
       <c r="AA6" t="n">
         <v>946</v>
       </c>
+      <c r="AB6" t="n">
+        <v>955</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1151,6 +1171,9 @@
       <c r="AA7" t="n">
         <v>191</v>
       </c>
+      <c r="AB7" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1236,6 +1259,9 @@
       <c r="AA8" t="n">
         <v>1253</v>
       </c>
+      <c r="AB8" t="n">
+        <v>1286</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1321,6 +1347,9 @@
       <c r="AA9" t="n">
         <v>2</v>
       </c>
+      <c r="AB9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1406,6 +1435,9 @@
       <c r="AA10" t="n">
         <v>5769</v>
       </c>
+      <c r="AB10" t="n">
+        <v>5809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1491,6 +1523,9 @@
       <c r="AA11" t="n">
         <v>507</v>
       </c>
+      <c r="AB11" t="n">
+        <v>511</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1576,6 +1611,9 @@
       <c r="AA12" t="n">
         <v>3566</v>
       </c>
+      <c r="AB12" t="n">
+        <v>3574</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1661,6 +1699,9 @@
       <c r="AA13" t="n">
         <v>1579</v>
       </c>
+      <c r="AB13" t="n">
+        <v>1592</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1746,6 +1787,9 @@
       <c r="AA14" t="n">
         <v>250</v>
       </c>
+      <c r="AB14" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1831,6 +1875,9 @@
       <c r="AA15" t="n">
         <v>1322</v>
       </c>
+      <c r="AB15" t="n">
+        <v>1333</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1916,6 +1963,9 @@
       <c r="AA16" t="n">
         <v>787</v>
       </c>
+      <c r="AB16" t="n">
+        <v>798</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2001,6 +2051,9 @@
       <c r="AA17" t="n">
         <v>9966</v>
       </c>
+      <c r="AB17" t="n">
+        <v>10036</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2086,6 +2139,9 @@
       <c r="AA18" t="n">
         <v>1003</v>
       </c>
+      <c r="AB18" t="n">
+        <v>1025</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2171,6 +2227,9 @@
       <c r="AA19" t="n">
         <v>64</v>
       </c>
+      <c r="AB19" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2256,6 +2315,9 @@
       <c r="AA20" t="n">
         <v>2624</v>
       </c>
+      <c r="AB20" t="n">
+        <v>2645</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2341,6 +2403,9 @@
       <c r="AA21" t="n">
         <v>40349</v>
       </c>
+      <c r="AB21" t="n">
+        <v>40514</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2426,6 +2491,9 @@
       <c r="AA22" t="n">
         <v>91</v>
       </c>
+      <c r="AB22" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2511,6 +2579,9 @@
       <c r="AA23" t="n">
         <v>63</v>
       </c>
+      <c r="AB23" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2596,6 +2667,9 @@
       <c r="AA24" t="n">
         <v>0</v>
       </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2681,6 +2755,9 @@
       <c r="AA25" t="n">
         <v>17</v>
       </c>
+      <c r="AB25" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2766,6 +2843,9 @@
       <c r="AA26" t="n">
         <v>1022</v>
       </c>
+      <c r="AB26" t="n">
+        <v>1040</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2851,6 +2931,9 @@
       <c r="AA27" t="n">
         <v>563</v>
       </c>
+      <c r="AB27" t="n">
+        <v>565</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2936,6 +3019,9 @@
       <c r="AA28" t="n">
         <v>3833</v>
       </c>
+      <c r="AB28" t="n">
+        <v>3860</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3021,6 +3107,9 @@
       <c r="AA29" t="n">
         <v>1650</v>
       </c>
+      <c r="AB29" t="n">
+        <v>1665</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3106,6 +3195,9 @@
       <c r="AA30" t="n">
         <v>55</v>
       </c>
+      <c r="AB30" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3191,6 +3283,9 @@
       <c r="AA31" t="n">
         <v>10252</v>
       </c>
+      <c r="AB31" t="n">
+        <v>10314</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3276,6 +3371,9 @@
       <c r="AA32" t="n">
         <v>1228</v>
       </c>
+      <c r="AB32" t="n">
+        <v>1233</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3361,6 +3459,9 @@
       <c r="AA33" t="n">
         <v>316</v>
       </c>
+      <c r="AB33" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,6 +3547,9 @@
       <c r="AA34" t="n">
         <v>747</v>
       </c>
+      <c r="AB34" t="n">
+        <v>762</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3531,6 +3635,9 @@
       <c r="AA35" t="n">
         <v>6394</v>
       </c>
+      <c r="AB35" t="n">
+        <v>6438</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3615,6 +3722,9 @@
       </c>
       <c r="AA36" t="n">
         <v>5622</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>5682</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/deceased_cases.xlsx
+++ b/excelfiles/deceased_cases.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -646,6 +646,11 @@
           <t>13-10-2020</t>
         </is>
       </c>
+      <c r="AC1" s="4" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -734,6 +739,9 @@
       <c r="AB2" t="n">
         <v>55</v>
       </c>
+      <c r="AC2" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -822,6 +830,9 @@
       <c r="AB3" t="n">
         <v>6256</v>
       </c>
+      <c r="AC3" t="n">
+        <v>6291</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -910,6 +921,9 @@
       <c r="AB4" t="n">
         <v>24</v>
       </c>
+      <c r="AC4" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -998,6 +1012,9 @@
       <c r="AB5" t="n">
         <v>826</v>
       </c>
+      <c r="AC5" t="n">
+        <v>830</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1086,6 +1103,9 @@
       <c r="AB6" t="n">
         <v>955</v>
       </c>
+      <c r="AC6" t="n">
+        <v>961</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1174,6 +1194,9 @@
       <c r="AB7" t="n">
         <v>192</v>
       </c>
+      <c r="AC7" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1262,6 +1285,9 @@
       <c r="AB8" t="n">
         <v>1286</v>
       </c>
+      <c r="AC8" t="n">
+        <v>1306</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1350,6 +1376,9 @@
       <c r="AB9" t="n">
         <v>2</v>
       </c>
+      <c r="AC9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1438,6 +1467,9 @@
       <c r="AB10" t="n">
         <v>5809</v>
       </c>
+      <c r="AC10" t="n">
+        <v>5854</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1526,6 +1558,9 @@
       <c r="AB11" t="n">
         <v>511</v>
       </c>
+      <c r="AC11" t="n">
+        <v>514</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1614,6 +1649,9 @@
       <c r="AB12" t="n">
         <v>3574</v>
       </c>
+      <c r="AC12" t="n">
+        <v>3584</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1702,6 +1740,9 @@
       <c r="AB13" t="n">
         <v>1592</v>
       </c>
+      <c r="AC13" t="n">
+        <v>1601</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1790,6 +1831,9 @@
       <c r="AB14" t="n">
         <v>251</v>
       </c>
+      <c r="AC14" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1878,6 +1922,9 @@
       <c r="AB15" t="n">
         <v>1333</v>
       </c>
+      <c r="AC15" t="n">
+        <v>1340</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1966,6 +2013,9 @@
       <c r="AB16" t="n">
         <v>798</v>
       </c>
+      <c r="AC16" t="n">
+        <v>805</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2054,6 +2104,9 @@
       <c r="AB17" t="n">
         <v>10036</v>
       </c>
+      <c r="AC17" t="n">
+        <v>10123</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2142,6 +2195,9 @@
       <c r="AB18" t="n">
         <v>1025</v>
       </c>
+      <c r="AC18" t="n">
+        <v>1046</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2230,6 +2286,9 @@
       <c r="AB19" t="n">
         <v>64</v>
       </c>
+      <c r="AC19" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2318,6 +2377,9 @@
       <c r="AB20" t="n">
         <v>2645</v>
       </c>
+      <c r="AC20" t="n">
+        <v>2671</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2406,6 +2468,9 @@
       <c r="AB21" t="n">
         <v>40514</v>
       </c>
+      <c r="AC21" t="n">
+        <v>40701</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2494,6 +2559,9 @@
       <c r="AB22" t="n">
         <v>93</v>
       </c>
+      <c r="AC22" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2582,6 +2650,9 @@
       <c r="AB23" t="n">
         <v>64</v>
       </c>
+      <c r="AC23" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2670,6 +2741,9 @@
       <c r="AB24" t="n">
         <v>0</v>
       </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2758,6 +2832,9 @@
       <c r="AB25" t="n">
         <v>18</v>
       </c>
+      <c r="AC25" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2846,6 +2923,9 @@
       <c r="AB26" t="n">
         <v>1040</v>
       </c>
+      <c r="AC26" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2934,6 +3014,9 @@
       <c r="AB27" t="n">
         <v>565</v>
       </c>
+      <c r="AC27" t="n">
+        <v>567</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3022,6 +3105,9 @@
       <c r="AB28" t="n">
         <v>3860</v>
       </c>
+      <c r="AC28" t="n">
+        <v>3894</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3110,6 +3196,9 @@
       <c r="AB29" t="n">
         <v>1665</v>
       </c>
+      <c r="AC29" t="n">
+        <v>1679</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3198,6 +3287,9 @@
       <c r="AB30" t="n">
         <v>57</v>
       </c>
+      <c r="AC30" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3286,6 +3378,9 @@
       <c r="AB31" t="n">
         <v>10314</v>
       </c>
+      <c r="AC31" t="n">
+        <v>10371</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3374,6 +3469,9 @@
       <c r="AB32" t="n">
         <v>1233</v>
       </c>
+      <c r="AC32" t="n">
+        <v>1241</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3462,6 +3560,9 @@
       <c r="AB33" t="n">
         <v>317</v>
       </c>
+      <c r="AC33" t="n">
+        <v>318</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3550,6 +3651,9 @@
       <c r="AB34" t="n">
         <v>762</v>
       </c>
+      <c r="AC34" t="n">
+        <v>782</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3638,6 +3742,9 @@
       <c r="AB35" t="n">
         <v>6438</v>
       </c>
+      <c r="AC35" t="n">
+        <v>6466</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3725,6 +3832,9 @@
       </c>
       <c r="AB36" t="n">
         <v>5682</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>5744</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/deceased_cases.xlsx
+++ b/excelfiles/deceased_cases.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -651,6 +651,11 @@
           <t>14-10-2020</t>
         </is>
       </c>
+      <c r="AD1" s="4" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -742,6 +747,9 @@
       <c r="AC2" t="n">
         <v>55</v>
       </c>
+      <c r="AD2" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -833,6 +841,9 @@
       <c r="AC3" t="n">
         <v>6291</v>
       </c>
+      <c r="AD3" t="n">
+        <v>6319</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -924,6 +935,9 @@
       <c r="AC4" t="n">
         <v>28</v>
       </c>
+      <c r="AD4" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1015,6 +1029,9 @@
       <c r="AC5" t="n">
         <v>830</v>
       </c>
+      <c r="AD5" t="n">
+        <v>834</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1106,6 +1123,9 @@
       <c r="AC6" t="n">
         <v>961</v>
       </c>
+      <c r="AD6" t="n">
+        <v>967</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1197,6 +1217,9 @@
       <c r="AC7" t="n">
         <v>197</v>
       </c>
+      <c r="AD7" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1288,6 +1311,9 @@
       <c r="AC8" t="n">
         <v>1306</v>
       </c>
+      <c r="AD8" t="n">
+        <v>1339</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1379,6 +1405,9 @@
       <c r="AC9" t="n">
         <v>2</v>
       </c>
+      <c r="AD9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1470,6 +1499,9 @@
       <c r="AC10" t="n">
         <v>5854</v>
       </c>
+      <c r="AD10" t="n">
+        <v>5898</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1561,6 +1593,9 @@
       <c r="AC11" t="n">
         <v>514</v>
       </c>
+      <c r="AD11" t="n">
+        <v>519</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1652,6 +1687,9 @@
       <c r="AC12" t="n">
         <v>3584</v>
       </c>
+      <c r="AD12" t="n">
+        <v>3595</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1743,6 +1781,9 @@
       <c r="AC13" t="n">
         <v>1601</v>
       </c>
+      <c r="AD13" t="n">
+        <v>1614</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1834,6 +1875,9 @@
       <c r="AC14" t="n">
         <v>254</v>
       </c>
+      <c r="AD14" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1925,6 +1969,9 @@
       <c r="AC15" t="n">
         <v>1340</v>
       </c>
+      <c r="AD15" t="n">
+        <v>1352</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2016,6 +2063,9 @@
       <c r="AC16" t="n">
         <v>805</v>
       </c>
+      <c r="AD16" t="n">
+        <v>811</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2107,6 +2157,9 @@
       <c r="AC17" t="n">
         <v>10123</v>
       </c>
+      <c r="AD17" t="n">
+        <v>10198</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2198,6 +2251,9 @@
       <c r="AC18" t="n">
         <v>1046</v>
       </c>
+      <c r="AD18" t="n">
+        <v>1066</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2289,6 +2345,9 @@
       <c r="AC19" t="n">
         <v>64</v>
       </c>
+      <c r="AD19" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2380,6 +2439,9 @@
       <c r="AC20" t="n">
         <v>2671</v>
       </c>
+      <c r="AD20" t="n">
+        <v>2686</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2471,6 +2533,9 @@
       <c r="AC21" t="n">
         <v>40701</v>
       </c>
+      <c r="AD21" t="n">
+        <v>40859</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2562,6 +2627,9 @@
       <c r="AC22" t="n">
         <v>97</v>
       </c>
+      <c r="AD22" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2653,6 +2721,9 @@
       <c r="AC23" t="n">
         <v>65</v>
       </c>
+      <c r="AD23" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2744,6 +2815,9 @@
       <c r="AC24" t="n">
         <v>0</v>
       </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2835,6 +2909,9 @@
       <c r="AC25" t="n">
         <v>19</v>
       </c>
+      <c r="AD25" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2926,6 +3003,9 @@
       <c r="AC26" t="n">
         <v>1057</v>
       </c>
+      <c r="AD26" t="n">
+        <v>1062</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3017,6 +3097,9 @@
       <c r="AC27" t="n">
         <v>567</v>
       </c>
+      <c r="AD27" t="n">
+        <v>568</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3108,6 +3191,9 @@
       <c r="AC28" t="n">
         <v>3894</v>
       </c>
+      <c r="AD28" t="n">
+        <v>3925</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3199,6 +3285,9 @@
       <c r="AC29" t="n">
         <v>1679</v>
       </c>
+      <c r="AD29" t="n">
+        <v>1694</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3290,6 +3379,9 @@
       <c r="AC30" t="n">
         <v>59</v>
       </c>
+      <c r="AD30" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3381,6 +3473,9 @@
       <c r="AC31" t="n">
         <v>10371</v>
       </c>
+      <c r="AD31" t="n">
+        <v>10423</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3472,6 +3567,9 @@
       <c r="AC32" t="n">
         <v>1241</v>
       </c>
+      <c r="AD32" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3563,6 +3661,9 @@
       <c r="AC33" t="n">
         <v>318</v>
       </c>
+      <c r="AD33" t="n">
+        <v>319</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3654,6 +3755,9 @@
       <c r="AC34" t="n">
         <v>782</v>
       </c>
+      <c r="AD34" t="n">
+        <v>796</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3745,6 +3849,9 @@
       <c r="AC35" t="n">
         <v>6466</v>
       </c>
+      <c r="AD35" t="n">
+        <v>6507</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3835,6 +3942,9 @@
       </c>
       <c r="AC36" t="n">
         <v>5744</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>5808</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/deceased_cases.xlsx
+++ b/excelfiles/deceased_cases.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD36"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -656,6 +656,11 @@
           <t>15-10-2020</t>
         </is>
       </c>
+      <c r="AE1" s="4" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -750,6 +755,9 @@
       <c r="AD2" t="n">
         <v>55</v>
       </c>
+      <c r="AE2" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -844,6 +852,9 @@
       <c r="AD3" t="n">
         <v>6319</v>
       </c>
+      <c r="AE3" t="n">
+        <v>6357</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -938,6 +949,9 @@
       <c r="AD4" t="n">
         <v>29</v>
       </c>
+      <c r="AE4" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1032,6 +1046,9 @@
       <c r="AD5" t="n">
         <v>834</v>
       </c>
+      <c r="AE5" t="n">
+        <v>843</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1126,6 +1143,9 @@
       <c r="AD6" t="n">
         <v>967</v>
       </c>
+      <c r="AE6" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1220,6 +1240,9 @@
       <c r="AD7" t="n">
         <v>199</v>
       </c>
+      <c r="AE7" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1314,6 +1337,9 @@
       <c r="AD8" t="n">
         <v>1339</v>
       </c>
+      <c r="AE8" t="n">
+        <v>1385</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1408,6 +1434,9 @@
       <c r="AD9" t="n">
         <v>2</v>
       </c>
+      <c r="AE9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1502,6 +1531,9 @@
       <c r="AD10" t="n">
         <v>5898</v>
       </c>
+      <c r="AE10" t="n">
+        <v>5924</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1596,6 +1628,9 @@
       <c r="AD11" t="n">
         <v>519</v>
       </c>
+      <c r="AE11" t="n">
+        <v>525</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1690,6 +1725,9 @@
       <c r="AD12" t="n">
         <v>3595</v>
       </c>
+      <c r="AE12" t="n">
+        <v>3606</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1784,6 +1822,9 @@
       <c r="AD13" t="n">
         <v>1614</v>
       </c>
+      <c r="AE13" t="n">
+        <v>1623</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1878,6 +1919,9 @@
       <c r="AD14" t="n">
         <v>255</v>
       </c>
+      <c r="AE14" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1972,6 +2016,9 @@
       <c r="AD15" t="n">
         <v>1352</v>
       </c>
+      <c r="AE15" t="n">
+        <v>1358</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2066,6 +2113,9 @@
       <c r="AD16" t="n">
         <v>811</v>
       </c>
+      <c r="AE16" t="n">
+        <v>820</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2160,6 +2210,9 @@
       <c r="AD17" t="n">
         <v>10198</v>
       </c>
+      <c r="AE17" t="n">
+        <v>10283</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2254,6 +2307,9 @@
       <c r="AD18" t="n">
         <v>1066</v>
       </c>
+      <c r="AE18" t="n">
+        <v>1089</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2348,6 +2404,9 @@
       <c r="AD19" t="n">
         <v>64</v>
       </c>
+      <c r="AE19" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2442,6 +2501,9 @@
       <c r="AD20" t="n">
         <v>2686</v>
       </c>
+      <c r="AE20" t="n">
+        <v>2710</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2536,6 +2598,9 @@
       <c r="AD21" t="n">
         <v>40859</v>
       </c>
+      <c r="AE21" t="n">
+        <v>41196</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2630,6 +2695,9 @@
       <c r="AD22" t="n">
         <v>103</v>
       </c>
+      <c r="AE22" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2724,6 +2792,9 @@
       <c r="AD23" t="n">
         <v>70</v>
       </c>
+      <c r="AE23" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2818,6 +2889,9 @@
       <c r="AD24" t="n">
         <v>0</v>
       </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2912,6 +2986,9 @@
       <c r="AD25" t="n">
         <v>22</v>
       </c>
+      <c r="AE25" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3006,6 +3083,9 @@
       <c r="AD26" t="n">
         <v>1062</v>
       </c>
+      <c r="AE26" t="n">
+        <v>1089</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3100,6 +3180,9 @@
       <c r="AD27" t="n">
         <v>568</v>
       </c>
+      <c r="AE27" t="n">
+        <v>570</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3194,6 +3277,9 @@
       <c r="AD28" t="n">
         <v>3925</v>
       </c>
+      <c r="AE28" t="n">
+        <v>3954</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3288,6 +3374,9 @@
       <c r="AD29" t="n">
         <v>1694</v>
       </c>
+      <c r="AE29" t="n">
+        <v>1708</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3382,6 +3471,9 @@
       <c r="AD30" t="n">
         <v>59</v>
       </c>
+      <c r="AE30" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3476,6 +3568,9 @@
       <c r="AD31" t="n">
         <v>10423</v>
       </c>
+      <c r="AE31" t="n">
+        <v>10472</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3570,6 +3665,9 @@
       <c r="AD32" t="n">
         <v>1249</v>
       </c>
+      <c r="AE32" t="n">
+        <v>1256</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3664,6 +3762,9 @@
       <c r="AD33" t="n">
         <v>319</v>
       </c>
+      <c r="AE33" t="n">
+        <v>323</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3758,6 +3859,9 @@
       <c r="AD34" t="n">
         <v>796</v>
       </c>
+      <c r="AE34" t="n">
+        <v>814</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3852,6 +3956,9 @@
       <c r="AD35" t="n">
         <v>6507</v>
       </c>
+      <c r="AE35" t="n">
+        <v>6543</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3945,6 +4052,9 @@
       </c>
       <c r="AD36" t="n">
         <v>5808</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>5870</v>
       </c>
     </row>
   </sheetData>
